--- a/data/supply_expectation.xlsx
+++ b/data/supply_expectation.xlsx
@@ -575,76 +575,76 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.6</v>
+        <v>38.4</v>
       </c>
       <c r="J2" t="n">
-        <v>147.2</v>
+        <v>142.5</v>
       </c>
       <c r="K2" t="n">
-        <v>182.3</v>
+        <v>150.8</v>
       </c>
       <c r="L2" t="n">
-        <v>171</v>
+        <v>135.7</v>
       </c>
       <c r="M2" t="n">
-        <v>89.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="N2" t="n">
-        <v>27.1</v>
+        <v>29.7</v>
       </c>
       <c r="O2" t="n">
-        <v>65</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>129.3</v>
+        <v>130.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>121.3</v>
+        <v>126</v>
       </c>
       <c r="R2" t="n">
-        <v>97.5</v>
+        <v>100.8</v>
       </c>
       <c r="S2" t="n">
-        <v>63.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>63.7</v>
+        <v>28.5</v>
       </c>
       <c r="U2" t="n">
-        <v>32.5</v>
+        <v>36.1</v>
       </c>
       <c r="V2" t="n">
-        <v>50.9</v>
+        <v>54.9</v>
       </c>
       <c r="W2" t="n">
-        <v>38.8</v>
+        <v>37.4</v>
       </c>
       <c r="X2" t="n">
-        <v>40.3</v>
+        <v>43.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.6</v>
+        <v>22.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1432</v>
+        <v>10.27416666666667</v>
       </c>
     </row>
     <row r="3">
@@ -657,76 +657,76 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1</v>
+        <v>20.6</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="F3" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="I3" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="K3" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="L3" t="n">
-        <v>26</v>
+        <v>29.1</v>
       </c>
       <c r="M3" t="n">
-        <v>37</v>
+        <v>39.1</v>
       </c>
       <c r="N3" t="n">
-        <v>38.1</v>
+        <v>40.5</v>
       </c>
       <c r="O3" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="P3" t="n">
-        <v>32</v>
+        <v>35.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>35.6</v>
       </c>
       <c r="S3" t="n">
-        <v>36</v>
+        <v>38.7</v>
       </c>
       <c r="T3" t="n">
-        <v>28.7</v>
+        <v>32.2</v>
       </c>
       <c r="U3" t="n">
-        <v>27</v>
+        <v>29.9</v>
       </c>
       <c r="V3" t="n">
-        <v>32.1</v>
+        <v>31.1</v>
       </c>
       <c r="W3" t="n">
-        <v>32.1</v>
+        <v>34.1</v>
       </c>
       <c r="X3" t="n">
-        <v>23.3</v>
+        <v>24.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>666.8</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="4">
@@ -739,76 +739,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
+        <v>128.4</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>59.9</v>
       </c>
       <c r="E4" t="n">
-        <v>118</v>
+        <v>111.2</v>
       </c>
       <c r="F4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="n">
-        <v>18</v>
-      </c>
       <c r="H4" t="n">
-        <v>15.8</v>
+        <v>20.2</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>17.8</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>17.8</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="T4" t="n">
         <v>16</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="W4" t="n">
         <v>16</v>
       </c>
-      <c r="P4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>17</v>
-      </c>
-      <c r="S4" t="n">
-        <v>14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>14</v>
-      </c>
-      <c r="U4" t="n">
-        <v>14</v>
-      </c>
-      <c r="V4" t="n">
-        <v>16</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>35</v>
+        <v>19.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>690.6</v>
+        <v>23.995</v>
       </c>
     </row>
     <row r="5">
@@ -821,76 +821,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>149</v>
+        <v>155.1</v>
       </c>
       <c r="D5" t="n">
-        <v>170</v>
+        <v>166.5</v>
       </c>
       <c r="E5" t="n">
         <v>167</v>
       </c>
       <c r="F5" t="n">
-        <v>195</v>
+        <v>197.1</v>
       </c>
       <c r="G5" t="n">
-        <v>202</v>
+        <v>204.5</v>
       </c>
       <c r="H5" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I5" t="n">
-        <v>168</v>
+        <v>167.7</v>
       </c>
       <c r="J5" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="X5" t="n">
         <v>175</v>
       </c>
-      <c r="K5" t="n">
-        <v>178</v>
-      </c>
-      <c r="L5" t="n">
-        <v>153</v>
-      </c>
-      <c r="M5" t="n">
-        <v>153</v>
-      </c>
-      <c r="N5" t="n">
-        <v>175</v>
-      </c>
-      <c r="O5" t="n">
-        <v>177</v>
-      </c>
-      <c r="P5" t="n">
-        <v>181</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>171</v>
-      </c>
-      <c r="R5" t="n">
-        <v>175</v>
-      </c>
-      <c r="S5" t="n">
-        <v>168</v>
-      </c>
-      <c r="T5" t="n">
-        <v>156</v>
-      </c>
-      <c r="U5" t="n">
-        <v>162</v>
-      </c>
-      <c r="V5" t="n">
-        <v>145</v>
-      </c>
-      <c r="W5" t="n">
-        <v>176</v>
-      </c>
-      <c r="X5" t="n">
-        <v>170</v>
-      </c>
       <c r="Y5" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="n">
-        <v>4199.4</v>
+        <v>161.5695833333333</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -918,61 +918,61 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>281.8</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>487.1</v>
+        <v>489.2</v>
       </c>
       <c r="M6" t="n">
-        <v>777.3</v>
+        <v>382</v>
       </c>
       <c r="N6" t="n">
-        <v>457.5</v>
+        <v>59.1</v>
       </c>
       <c r="O6" t="n">
-        <v>754.5</v>
+        <v>753.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1516.5</v>
+        <v>595.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>681.3</v>
+        <v>686.5</v>
       </c>
       <c r="R6" t="n">
-        <v>400.8</v>
+        <v>394.4</v>
       </c>
       <c r="S6" t="n">
-        <v>945</v>
+        <v>948.9</v>
       </c>
       <c r="T6" t="n">
-        <v>410.6</v>
+        <v>413.4</v>
       </c>
       <c r="U6" t="n">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="V6" t="n">
-        <v>16.8</v>
+        <v>18.7</v>
       </c>
       <c r="W6" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="X6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>6768</v>
+        <v>21.31916666666667</v>
       </c>
     </row>
     <row r="7">
@@ -988,73 +988,73 @@
         <v>122</v>
       </c>
       <c r="D7" t="n">
-        <v>122</v>
+        <v>125.3</v>
       </c>
       <c r="E7" t="n">
-        <v>385</v>
+        <v>388.9</v>
       </c>
       <c r="F7" t="n">
-        <v>131</v>
+        <v>130.1</v>
       </c>
       <c r="G7" t="n">
-        <v>129</v>
+        <v>131.6</v>
       </c>
       <c r="H7" t="n">
-        <v>140</v>
+        <v>107.6</v>
       </c>
       <c r="I7" t="n">
-        <v>111</v>
+        <v>111.8</v>
       </c>
       <c r="J7" t="n">
-        <v>139</v>
+        <v>114.6</v>
       </c>
       <c r="K7" t="n">
-        <v>135</v>
+        <v>110.5</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="M7" t="n">
-        <v>102</v>
+        <v>107.2</v>
       </c>
       <c r="N7" t="n">
-        <v>109</v>
+        <v>110.7</v>
       </c>
       <c r="O7" t="n">
-        <v>107</v>
+        <v>110.3</v>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q7" t="n">
-        <v>109</v>
+        <v>113.8</v>
       </c>
       <c r="R7" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S7" t="n">
-        <v>102</v>
+        <v>105.1</v>
       </c>
       <c r="T7" t="n">
-        <v>99</v>
+        <v>102.4</v>
       </c>
       <c r="U7" t="n">
-        <v>95</v>
+        <v>100.9</v>
       </c>
       <c r="V7" t="n">
-        <v>88</v>
+        <v>93.5</v>
       </c>
       <c r="W7" t="n">
-        <v>104</v>
+        <v>108.2</v>
       </c>
       <c r="X7" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="Y7" t="n">
-        <v>117</v>
+        <v>120.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>3565</v>
+        <v>341.79375</v>
       </c>
     </row>
     <row r="8">
@@ -1067,76 +1067,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>987</v>
+        <v>985.7</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>60.9</v>
       </c>
       <c r="E8" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>72.2</v>
       </c>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>70.8</v>
       </c>
       <c r="H8" t="n">
-        <v>58</v>
+        <v>61.7</v>
       </c>
       <c r="I8" t="n">
-        <v>161</v>
+        <v>58.1</v>
       </c>
       <c r="J8" t="n">
-        <v>59</v>
+        <v>62.2</v>
       </c>
       <c r="K8" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="N8" t="n">
         <v>57</v>
       </c>
-      <c r="L8" t="n">
-        <v>52</v>
-      </c>
-      <c r="M8" t="n">
-        <v>163</v>
-      </c>
-      <c r="N8" t="n">
-        <v>54</v>
-      </c>
       <c r="O8" t="n">
-        <v>56</v>
+        <v>61.3</v>
       </c>
       <c r="P8" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>224</v>
+        <v>112.5</v>
       </c>
       <c r="R8" t="n">
-        <v>158.5</v>
+        <v>56.9</v>
       </c>
       <c r="S8" t="n">
-        <v>169</v>
+        <v>58.9</v>
       </c>
       <c r="T8" t="n">
-        <v>51</v>
+        <v>55.9</v>
       </c>
       <c r="U8" t="n">
-        <v>172</v>
+        <v>53.9</v>
       </c>
       <c r="V8" t="n">
-        <v>48</v>
+        <v>51.6</v>
       </c>
       <c r="W8" t="n">
-        <v>156</v>
+        <v>53.9</v>
       </c>
       <c r="X8" t="n">
-        <v>173</v>
+        <v>61.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>54</v>
+        <v>60.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3263.5</v>
+        <v>62.21708333333333</v>
       </c>
     </row>
     <row r="9">
@@ -1149,76 +1149,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4</v>
       </c>
       <c r="K9" t="n">
         <v>0.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
         <v>0.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P9" t="n">
         <v>0.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R9" t="n">
         <v>0.3</v>
       </c>
       <c r="S9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.3</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.4</v>
-      </c>
       <c r="V9" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X9" t="n">
         <v>0.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.7</v>
+        <v>0.17875</v>
       </c>
     </row>
     <row r="10">
@@ -1231,76 +1231,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="n">
-        <v>135</v>
+        <v>135.5</v>
       </c>
       <c r="J10" t="n">
-        <v>152</v>
+        <v>128.1</v>
       </c>
       <c r="K10" t="n">
-        <v>86</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
       <c r="M10" t="n">
-        <v>80.2</v>
+        <v>40.9</v>
       </c>
       <c r="N10" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="O10" t="n">
-        <v>55.9</v>
+        <v>57.2</v>
       </c>
       <c r="P10" t="n">
-        <v>49</v>
+        <v>50.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="R10" t="n">
-        <v>70</v>
+        <v>32.3</v>
       </c>
       <c r="S10" t="n">
-        <v>39</v>
+        <v>41.1</v>
       </c>
       <c r="T10" t="n">
-        <v>75.09999999999999</v>
+        <v>40.4</v>
       </c>
       <c r="U10" t="n">
-        <v>35.7</v>
+        <v>37.1</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="W10" t="n">
-        <v>24</v>
+        <v>25.2</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1013.7</v>
+        <v>3.56375</v>
       </c>
     </row>
     <row r="11">
@@ -1313,76 +1313,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="D11" t="n">
-        <v>148</v>
+        <v>140.5</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>27.1</v>
       </c>
       <c r="F11" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>31.1</v>
       </c>
       <c r="H11" t="n">
-        <v>120</v>
+        <v>123.1</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>25.8</v>
       </c>
       <c r="J11" t="n">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>28.7</v>
       </c>
       <c r="L11" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>27.4</v>
       </c>
       <c r="N11" t="n">
-        <v>125</v>
+        <v>127.8</v>
       </c>
       <c r="O11" t="n">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="P11" t="n">
-        <v>139</v>
+        <v>143.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="S11" t="n">
-        <v>24</v>
+        <v>27.8</v>
       </c>
       <c r="T11" t="n">
-        <v>128</v>
+        <v>125.2</v>
       </c>
       <c r="U11" t="n">
-        <v>39</v>
+        <v>26.5</v>
       </c>
       <c r="V11" t="n">
-        <v>122</v>
+        <v>123.2</v>
       </c>
       <c r="W11" t="n">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="X11" t="n">
-        <v>125</v>
+        <v>127.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>31.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>2025</v>
+        <v>149.4154166666667</v>
       </c>
     </row>
     <row r="12">
@@ -1395,76 +1395,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6789</v>
+        <v>6793.2</v>
       </c>
       <c r="D12" t="n">
-        <v>864</v>
+        <v>855.7</v>
       </c>
       <c r="E12" t="n">
-        <v>1964</v>
+        <v>704.3</v>
       </c>
       <c r="F12" t="n">
-        <v>864</v>
+        <v>866.9</v>
       </c>
       <c r="G12" t="n">
-        <v>809</v>
+        <v>813.4</v>
       </c>
       <c r="H12" t="n">
-        <v>739</v>
+        <v>731.9</v>
       </c>
       <c r="I12" t="n">
-        <v>687</v>
+        <v>690.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1491.5</v>
+        <v>826.7</v>
       </c>
       <c r="K12" t="n">
-        <v>755</v>
+        <v>760.4</v>
       </c>
       <c r="L12" t="n">
-        <v>741</v>
+        <v>745.3</v>
       </c>
       <c r="M12" t="n">
-        <v>689</v>
+        <v>694.2</v>
       </c>
       <c r="N12" t="n">
-        <v>772</v>
+        <v>778.4</v>
       </c>
       <c r="O12" t="n">
-        <v>750</v>
+        <v>753.7</v>
       </c>
       <c r="P12" t="n">
-        <v>845</v>
+        <v>847.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>792</v>
+        <v>785.5</v>
       </c>
       <c r="R12" t="n">
-        <v>805</v>
+        <v>811.2</v>
       </c>
       <c r="S12" t="n">
-        <v>707</v>
+        <v>710.7</v>
       </c>
       <c r="T12" t="n">
-        <v>729</v>
+        <v>732.9</v>
       </c>
       <c r="U12" t="n">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="V12" t="n">
-        <v>683</v>
+        <v>675.9</v>
       </c>
       <c r="W12" t="n">
-        <v>664</v>
+        <v>668.4</v>
       </c>
       <c r="X12" t="n">
         <v>754</v>
       </c>
       <c r="Y12" t="n">
-        <v>1875</v>
+        <v>714.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>27804.5</v>
+        <v>765.0958333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1477,76 +1477,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
         <v>3.4</v>
       </c>
       <c r="E13" t="n">
-        <v>526</v>
+        <v>522.5</v>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R13" t="n">
         <v>8.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.9</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="T13" t="n">
-        <v>75.7</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>74.90000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="W13" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1878.3</v>
+        <v>421.1545833333333</v>
       </c>
     </row>
     <row r="14">
@@ -1559,76 +1559,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="N14" t="n">
         <v>24</v>
       </c>
-      <c r="E14" t="n">
-        <v>24</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31</v>
-      </c>
-      <c r="H14" t="n">
-        <v>26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21</v>
-      </c>
-      <c r="M14" t="n">
-        <v>35</v>
-      </c>
-      <c r="N14" t="n">
-        <v>21</v>
-      </c>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="P14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="R14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" t="n">
-        <v>23</v>
+        <v>24.8</v>
       </c>
       <c r="T14" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="V14" t="n">
-        <v>18.9</v>
+        <v>21.7</v>
       </c>
       <c r="W14" t="n">
-        <v>30</v>
+        <v>25.6</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>35.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>25.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>631</v>
+        <v>25.98708333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1641,76 +1641,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>549</v>
+        <v>550.9</v>
       </c>
       <c r="D15" t="n">
-        <v>597</v>
+        <v>601.5</v>
       </c>
       <c r="E15" t="n">
-        <v>656</v>
+        <v>599.6</v>
       </c>
       <c r="F15" t="n">
-        <v>691</v>
+        <v>688.5</v>
       </c>
       <c r="G15" t="n">
-        <v>690</v>
+        <v>693.4</v>
       </c>
       <c r="H15" t="n">
-        <v>634</v>
+        <v>563.1</v>
       </c>
       <c r="I15" t="n">
-        <v>575</v>
+        <v>570.9</v>
       </c>
       <c r="J15" t="n">
-        <v>633</v>
+        <v>628.1</v>
       </c>
       <c r="K15" t="n">
-        <v>611</v>
+        <v>605.8</v>
       </c>
       <c r="L15" t="n">
-        <v>500</v>
+        <v>505.1</v>
       </c>
       <c r="M15" t="n">
-        <v>567</v>
+        <v>566.2</v>
       </c>
       <c r="N15" t="n">
-        <v>606</v>
+        <v>610.7</v>
       </c>
       <c r="O15" t="n">
-        <v>658</v>
+        <v>619.9</v>
       </c>
       <c r="P15" t="n">
-        <v>589</v>
+        <v>593.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>554</v>
+        <v>557.8</v>
       </c>
       <c r="R15" t="n">
-        <v>631</v>
+        <v>584.6</v>
       </c>
       <c r="S15" t="n">
-        <v>561</v>
+        <v>567.4</v>
       </c>
       <c r="T15" t="n">
-        <v>561</v>
+        <v>565.7</v>
       </c>
       <c r="U15" t="n">
-        <v>567</v>
+        <v>572.8</v>
       </c>
       <c r="V15" t="n">
-        <v>460</v>
+        <v>463.9</v>
       </c>
       <c r="W15" t="n">
-        <v>508</v>
+        <v>501.7</v>
       </c>
       <c r="X15" t="n">
-        <v>512</v>
+        <v>516.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>587</v>
+        <v>582.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>14379.1</v>
+        <v>497.8966666666667</v>
       </c>
     </row>
     <row r="16">
@@ -1726,73 +1726,73 @@
         <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>7006</v>
+        <v>7010.5</v>
       </c>
       <c r="E16" t="n">
-        <v>762.2</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="H16" t="n">
-        <v>14.9</v>
+        <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>14.9</v>
+        <v>17.6</v>
       </c>
       <c r="J16" t="n">
-        <v>820</v>
+        <v>25.8</v>
       </c>
       <c r="K16" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="U16" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L16" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
         <v>13</v>
       </c>
-      <c r="S16" t="n">
-        <v>1016.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>13</v>
-      </c>
-      <c r="U16" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9</v>
-      </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>11.8</v>
+        <v>16.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>25039.8</v>
+        <v>7325.875833333334</v>
       </c>
     </row>
     <row r="17">
@@ -1805,76 +1805,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350</v>
+        <v>349.2</v>
       </c>
       <c r="D17" t="n">
-        <v>302</v>
+        <v>304.8</v>
       </c>
       <c r="E17" t="n">
-        <v>339</v>
+        <v>344.3</v>
       </c>
       <c r="F17" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G17" t="n">
-        <v>408</v>
+        <v>411.8</v>
       </c>
       <c r="H17" t="n">
-        <v>292</v>
+        <v>293.6</v>
       </c>
       <c r="I17" t="n">
-        <v>420</v>
+        <v>423.1</v>
       </c>
       <c r="J17" t="n">
-        <v>311</v>
+        <v>308.1</v>
       </c>
       <c r="K17" t="n">
-        <v>368</v>
+        <v>346.1</v>
       </c>
       <c r="L17" t="n">
-        <v>285</v>
+        <v>289.4</v>
       </c>
       <c r="M17" t="n">
-        <v>363</v>
+        <v>368.6</v>
       </c>
       <c r="N17" t="n">
-        <v>336</v>
+        <v>336.4</v>
       </c>
       <c r="O17" t="n">
-        <v>408</v>
+        <v>411.8</v>
       </c>
       <c r="P17" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>486.6</v>
+      </c>
+      <c r="W17" t="n">
         <v>337</v>
       </c>
-      <c r="Q17" t="n">
-        <v>324</v>
-      </c>
-      <c r="R17" t="n">
-        <v>516</v>
-      </c>
-      <c r="S17" t="n">
-        <v>328</v>
-      </c>
-      <c r="T17" t="n">
-        <v>370</v>
-      </c>
-      <c r="U17" t="n">
-        <v>546</v>
-      </c>
-      <c r="V17" t="n">
-        <v>872</v>
-      </c>
-      <c r="W17" t="n">
-        <v>332</v>
-      </c>
       <c r="X17" t="n">
-        <v>710</v>
+        <v>295.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Z17" t="n">
-        <v>9737</v>
+        <v>312.0945833333333</v>
       </c>
     </row>
     <row r="18">
@@ -1887,76 +1887,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>512.9</v>
       </c>
       <c r="D18" t="n">
-        <v>638</v>
+        <v>642.1</v>
       </c>
       <c r="E18" t="n">
-        <v>572</v>
+        <v>576.9</v>
       </c>
       <c r="F18" t="n">
-        <v>745</v>
+        <v>741.9</v>
       </c>
       <c r="G18" t="n">
-        <v>672</v>
+        <v>674.9</v>
       </c>
       <c r="H18" t="n">
-        <v>619</v>
+        <v>611.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1202</v>
+        <v>558</v>
       </c>
       <c r="J18" t="n">
-        <v>643</v>
+        <v>647.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2544</v>
+        <v>590</v>
       </c>
       <c r="L18" t="n">
-        <v>2405</v>
+        <v>2409.6</v>
       </c>
       <c r="M18" t="n">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="N18" t="n">
-        <v>1340</v>
+        <v>1344.9</v>
       </c>
       <c r="O18" t="n">
-        <v>602</v>
+        <v>605.9</v>
       </c>
       <c r="P18" t="n">
-        <v>838</v>
+        <v>710.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2747</v>
+        <v>702.5</v>
       </c>
       <c r="R18" t="n">
-        <v>681</v>
+        <v>686.1</v>
       </c>
       <c r="S18" t="n">
-        <v>572</v>
+        <v>576.5</v>
       </c>
       <c r="T18" t="n">
-        <v>638</v>
+        <v>630.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2606</v>
+        <v>561.3</v>
       </c>
       <c r="V18" t="n">
-        <v>572</v>
+        <v>576.6</v>
       </c>
       <c r="W18" t="n">
-        <v>550</v>
+        <v>554.8</v>
       </c>
       <c r="X18" t="n">
-        <v>1097</v>
+        <v>665.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>610</v>
+        <v>615.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>27229</v>
+        <v>661.0408333333332</v>
       </c>
     </row>
     <row r="19">
@@ -1969,76 +1969,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E19" t="n">
-        <v>56.1</v>
+        <v>2.4</v>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>62.2</v>
+        <v>8.5</v>
       </c>
       <c r="I19" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="J19" t="n">
-        <v>67.40000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="K19" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="L19" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="M19" t="n">
-        <v>32.3</v>
+        <v>29.8</v>
       </c>
       <c r="N19" t="n">
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="O19" t="n">
-        <v>79</v>
+        <v>30.1</v>
       </c>
       <c r="P19" t="n">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>33</v>
+        <v>34.1</v>
       </c>
       <c r="R19" t="n">
-        <v>45.1</v>
+        <v>40.5</v>
       </c>
       <c r="S19" t="n">
-        <v>49.1</v>
+        <v>50.2</v>
       </c>
       <c r="T19" t="n">
-        <v>62</v>
+        <v>61.1</v>
       </c>
       <c r="U19" t="n">
-        <v>96.2</v>
+        <v>92.2</v>
       </c>
       <c r="V19" t="n">
-        <v>100.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="W19" t="n">
-        <v>93.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="X19" t="n">
-        <v>48.9</v>
+        <v>50.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1029.6</v>
+        <v>11.38083333333333</v>
       </c>
     </row>
     <row r="20">
@@ -2051,76 +2051,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27.1</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>38.7</v>
       </c>
       <c r="E20" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="P20" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Q20" t="n">
         <v>33</v>
       </c>
-      <c r="F20" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>41</v>
-      </c>
-      <c r="H20" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
         <v>38.6</v>
       </c>
-      <c r="L20" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>58</v>
-      </c>
-      <c r="O20" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>36.5</v>
-      </c>
       <c r="S20" t="n">
-        <v>27.3</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="U20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V20" t="n">
-        <v>29.1</v>
+        <v>31.6</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="X20" t="n">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>33.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>897.7</v>
+        <v>34.705</v>
       </c>
     </row>
     <row r="21">
@@ -2133,76 +2133,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>387</v>
+        <v>389.4</v>
       </c>
       <c r="D21" t="n">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E21" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F21" t="n">
-        <v>490</v>
+        <v>495.3</v>
       </c>
       <c r="G21" t="n">
-        <v>513</v>
+        <v>513.6</v>
       </c>
       <c r="H21" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I21" t="n">
-        <v>431</v>
+        <v>428.9</v>
       </c>
       <c r="J21" t="n">
-        <v>473</v>
+        <v>446.6</v>
       </c>
       <c r="K21" t="n">
-        <v>427</v>
+        <v>431.8</v>
       </c>
       <c r="L21" t="n">
-        <v>386</v>
+        <v>372.5</v>
       </c>
       <c r="M21" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="P21" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>412.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>411.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>421.7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="U21" t="n">
         <v>395</v>
       </c>
-      <c r="N21" t="n">
-        <v>420</v>
-      </c>
-      <c r="O21" t="n">
-        <v>449</v>
-      </c>
-      <c r="P21" t="n">
-        <v>440</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>408</v>
-      </c>
-      <c r="R21" t="n">
-        <v>407</v>
-      </c>
-      <c r="S21" t="n">
-        <v>418</v>
-      </c>
-      <c r="T21" t="n">
-        <v>399</v>
-      </c>
-      <c r="U21" t="n">
-        <v>390</v>
-      </c>
       <c r="V21" t="n">
-        <v>365</v>
+        <v>357.4</v>
       </c>
       <c r="W21" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="X21" t="n">
-        <v>425</v>
+        <v>429.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>448</v>
+        <v>451.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>10490</v>
+        <v>397.5354166666667</v>
       </c>
     </row>
     <row r="22">
@@ -2215,76 +2215,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="n">
-        <v>70.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>118</v>
+        <v>75.5</v>
       </c>
       <c r="F22" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="G22" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="H22" t="n">
-        <v>77.09999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="I22" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="J22" t="n">
-        <v>76.40000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="K22" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="L22" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="M22" t="n">
-        <v>74.8</v>
+        <v>15.7</v>
       </c>
       <c r="N22" t="n">
-        <v>74.2</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>55.2</v>
+        <v>16</v>
       </c>
       <c r="P22" t="n">
-        <v>60.4</v>
+        <v>11.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.2</v>
+        <v>14.3</v>
       </c>
       <c r="R22" t="n">
-        <v>56.2</v>
+        <v>12.9</v>
       </c>
       <c r="S22" t="n">
-        <v>63.7</v>
+        <v>13.3</v>
       </c>
       <c r="T22" t="n">
-        <v>47.2</v>
+        <v>49.5</v>
       </c>
       <c r="U22" t="n">
-        <v>102.3</v>
+        <v>52.6</v>
       </c>
       <c r="V22" t="n">
-        <v>107</v>
+        <v>56.3</v>
       </c>
       <c r="W22" t="n">
-        <v>70.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="X22" t="n">
-        <v>77.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>1556.8</v>
+        <v>70.04875</v>
       </c>
     </row>
     <row r="23">
@@ -2297,76 +2297,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>31.1</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>128</v>
+        <v>130.2</v>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>42.4</v>
       </c>
       <c r="H23" t="n">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>31.6</v>
       </c>
       <c r="J23" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="K23" t="n">
-        <v>28</v>
+        <v>32.3</v>
       </c>
       <c r="L23" t="n">
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>93</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="O23" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>32</v>
+      </c>
+      <c r="R23" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="S23" t="n">
         <v>33</v>
       </c>
-      <c r="P23" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>28</v>
-      </c>
-      <c r="R23" t="n">
-        <v>92</v>
-      </c>
-      <c r="S23" t="n">
-        <v>29</v>
-      </c>
       <c r="T23" t="n">
-        <v>83</v>
+        <v>86.3</v>
       </c>
       <c r="U23" t="n">
-        <v>27</v>
+        <v>29.8</v>
       </c>
       <c r="V23" t="n">
-        <v>78</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>28</v>
+        <v>30.8</v>
       </c>
       <c r="X23" t="n">
-        <v>89</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>32.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>1561</v>
+        <v>96.15125</v>
       </c>
     </row>
     <row r="24">
@@ -2379,76 +2379,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1153</v>
+        <v>1158.6</v>
       </c>
       <c r="D24" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E24" t="n">
-        <v>1009</v>
+        <v>1009.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1092</v>
+        <v>1096.3</v>
       </c>
       <c r="G24" t="n">
-        <v>1257</v>
+        <v>1261.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1433</v>
+        <v>1222.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1574</v>
+        <v>1573.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1766</v>
+        <v>1769.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1591</v>
+        <v>1588.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1591.5</v>
+        <v>1444.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1708</v>
+        <v>1712.9</v>
       </c>
       <c r="N24" t="n">
-        <v>2496</v>
+        <v>2496.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1556</v>
+        <v>1357.7</v>
       </c>
       <c r="P24" t="n">
-        <v>1253</v>
+        <v>1257.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1263</v>
+        <v>1266.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1236</v>
+        <v>1234.9</v>
       </c>
       <c r="S24" t="n">
-        <v>1234</v>
+        <v>1238.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1772</v>
+        <v>1775.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1475</v>
+        <v>1479.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1990</v>
+        <v>1993.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1720</v>
+        <v>1724.3</v>
       </c>
       <c r="X24" t="n">
-        <v>1484</v>
+        <v>1489.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>1354</v>
+        <v>1348.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>37669.5</v>
+        <v>1833.369583333334</v>
       </c>
     </row>
     <row r="25">
@@ -2461,76 +2461,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="n">
-        <v>20.7</v>
+        <v>24.7</v>
       </c>
       <c r="E25" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="F25" t="n">
-        <v>15.9</v>
+        <v>17.5</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H25" t="n">
-        <v>81</v>
+        <v>50.6</v>
       </c>
       <c r="I25" t="n">
-        <v>46</v>
+        <v>50.3</v>
       </c>
       <c r="J25" t="n">
-        <v>69</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>65</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="M25" t="n">
-        <v>85</v>
+        <v>66.7</v>
       </c>
       <c r="N25" t="n">
-        <v>104</v>
+        <v>68.5</v>
       </c>
       <c r="O25" t="n">
-        <v>81</v>
+        <v>86.8</v>
       </c>
       <c r="P25" t="n">
-        <v>88</v>
+        <v>87.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>80</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="S25" t="n">
-        <v>84</v>
+        <v>81.5</v>
       </c>
       <c r="T25" t="n">
-        <v>98</v>
+        <v>101.1</v>
       </c>
       <c r="U25" t="n">
-        <v>96</v>
+        <v>100.7</v>
       </c>
       <c r="V25" t="n">
-        <v>104</v>
+        <v>103.2</v>
       </c>
       <c r="W25" t="n">
-        <v>108</v>
+        <v>111.9</v>
       </c>
       <c r="X25" t="n">
-        <v>104</v>
+        <v>107.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>91</v>
+        <v>92.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>1743.1</v>
+        <v>50.63583333333334</v>
       </c>
     </row>
     <row r="26">
@@ -2543,76 +2543,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>216.4</v>
       </c>
       <c r="D26" t="n">
-        <v>236</v>
+        <v>236.5</v>
       </c>
       <c r="E26" t="n">
-        <v>241</v>
+        <v>244.7</v>
       </c>
       <c r="F26" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G26" t="n">
-        <v>282</v>
+        <v>283.1</v>
       </c>
       <c r="H26" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I26" t="n">
-        <v>232</v>
+        <v>237.1</v>
       </c>
       <c r="J26" t="n">
-        <v>258</v>
+        <v>256.9</v>
       </c>
       <c r="K26" t="n">
-        <v>243</v>
+        <v>247.4</v>
       </c>
       <c r="L26" t="n">
-        <v>205</v>
+        <v>207.1</v>
       </c>
       <c r="M26" t="n">
-        <v>214</v>
+        <v>216.5</v>
       </c>
       <c r="N26" t="n">
-        <v>239</v>
+        <v>241.3</v>
       </c>
       <c r="O26" t="n">
-        <v>240</v>
+        <v>246.1</v>
       </c>
       <c r="P26" t="n">
-        <v>244</v>
+        <v>248.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>237</v>
+        <v>240.4</v>
       </c>
       <c r="R26" t="n">
-        <v>225</v>
+        <v>227.7</v>
       </c>
       <c r="S26" t="n">
-        <v>229</v>
+        <v>230.4</v>
       </c>
       <c r="T26" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="U26" t="n">
-        <v>218</v>
+        <v>223.9</v>
       </c>
       <c r="V26" t="n">
-        <v>203</v>
+        <v>206.5</v>
       </c>
       <c r="W26" t="n">
-        <v>224</v>
+        <v>227.2</v>
       </c>
       <c r="X26" t="n">
-        <v>240</v>
+        <v>240.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>5796</v>
+        <v>220.7241666666667</v>
       </c>
     </row>
     <row r="27">
@@ -2625,76 +2625,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>26.3</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>27.1</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>29.9</v>
       </c>
       <c r="G27" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>25.4</v>
       </c>
       <c r="I27" t="n">
-        <v>21</v>
+        <v>26.7</v>
       </c>
       <c r="J27" t="n">
-        <v>27</v>
+        <v>28.2</v>
       </c>
       <c r="K27" t="n">
-        <v>23</v>
+        <v>27.6</v>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>24.9</v>
       </c>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>25.7</v>
       </c>
       <c r="N27" t="n">
-        <v>25</v>
+        <v>27.4</v>
       </c>
       <c r="O27" t="n">
-        <v>26</v>
+        <v>28.9</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>25</v>
+        <v>27.6</v>
       </c>
       <c r="R27" t="n">
-        <v>24</v>
+        <v>27.7</v>
       </c>
       <c r="S27" t="n">
-        <v>23</v>
+        <v>27.3</v>
       </c>
       <c r="T27" t="n">
-        <v>23</v>
+        <v>26.9</v>
       </c>
       <c r="U27" t="n">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="V27" t="n">
-        <v>24</v>
+        <v>25.8</v>
       </c>
       <c r="W27" t="n">
-        <v>24</v>
+        <v>27.6</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>28.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>28.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>580</v>
+        <v>24.71625</v>
       </c>
     </row>
     <row r="28">
@@ -2707,76 +2707,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>563</v>
+        <v>568.2</v>
       </c>
       <c r="D28" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E28" t="n">
-        <v>619</v>
+        <v>622.8</v>
       </c>
       <c r="F28" t="n">
-        <v>625</v>
+        <v>630.2</v>
       </c>
       <c r="G28" t="n">
-        <v>651</v>
+        <v>655.7</v>
       </c>
       <c r="H28" t="n">
-        <v>505</v>
+        <v>509.9</v>
       </c>
       <c r="I28" t="n">
-        <v>530</v>
+        <v>522.8</v>
       </c>
       <c r="J28" t="n">
-        <v>543</v>
+        <v>547.9</v>
       </c>
       <c r="K28" t="n">
-        <v>532</v>
+        <v>537.6</v>
       </c>
       <c r="L28" t="n">
-        <v>472</v>
+        <v>475.8</v>
       </c>
       <c r="M28" t="n">
-        <v>492</v>
+        <v>497.3</v>
       </c>
       <c r="N28" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="O28" t="n">
-        <v>551</v>
+        <v>556.6</v>
       </c>
       <c r="P28" t="n">
-        <v>554</v>
+        <v>544.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>517</v>
+        <v>521.8</v>
       </c>
       <c r="R28" t="n">
-        <v>526</v>
+        <v>525.4</v>
       </c>
       <c r="S28" t="n">
-        <v>509</v>
+        <v>511.9</v>
       </c>
       <c r="T28" t="n">
-        <v>514</v>
+        <v>516.4</v>
       </c>
       <c r="U28" t="n">
-        <v>498</v>
+        <v>492.3</v>
       </c>
       <c r="V28" t="n">
-        <v>466</v>
+        <v>461.5</v>
       </c>
       <c r="W28" t="n">
-        <v>496</v>
+        <v>501.2</v>
       </c>
       <c r="X28" t="n">
-        <v>541</v>
+        <v>537.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>561</v>
+        <v>563.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>13418</v>
+        <v>538.6775</v>
       </c>
     </row>
     <row r="29">
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="K29" t="n">
-        <v>47.2</v>
+        <v>45.1</v>
       </c>
       <c r="L29" t="n">
-        <v>45.1</v>
+        <v>46</v>
       </c>
       <c r="M29" t="n">
-        <v>42.3</v>
+        <v>43.9</v>
       </c>
       <c r="N29" t="n">
-        <v>35.5</v>
+        <v>36.7</v>
       </c>
       <c r="O29" t="n">
-        <v>40</v>
+        <v>42.7</v>
       </c>
       <c r="P29" t="n">
-        <v>118</v>
+        <v>69.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.1</v>
+        <v>103.6</v>
       </c>
       <c r="R29" t="n">
-        <v>142.2</v>
+        <v>91.8</v>
       </c>
       <c r="S29" t="n">
-        <v>89.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="T29" t="n">
-        <v>119.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>56</v>
+        <v>58.4</v>
       </c>
       <c r="V29" t="n">
-        <v>49</v>
+        <v>50.7</v>
       </c>
       <c r="W29" t="n">
-        <v>47</v>
+        <v>48.7</v>
       </c>
       <c r="X29" t="n">
-        <v>43</v>
+        <v>45.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1083.8</v>
+        <v>14.25166666666667</v>
       </c>
     </row>
     <row r="30">
@@ -2871,76 +2871,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>574</v>
+        <v>579.3</v>
       </c>
       <c r="D30" t="n">
-        <v>663</v>
+        <v>664.9</v>
       </c>
       <c r="E30" t="n">
-        <v>669</v>
+        <v>674.7</v>
       </c>
       <c r="F30" t="n">
-        <v>806</v>
+        <v>805.6</v>
       </c>
       <c r="G30" t="n">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="H30" t="n">
-        <v>615</v>
+        <v>614.4</v>
       </c>
       <c r="I30" t="n">
+        <v>662.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>724.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>656.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>613.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>641.9</v>
+      </c>
+      <c r="N30" t="n">
         <v>665</v>
       </c>
-      <c r="J30" t="n">
-        <v>724</v>
-      </c>
-      <c r="K30" t="n">
-        <v>653</v>
-      </c>
-      <c r="L30" t="n">
-        <v>618</v>
-      </c>
-      <c r="M30" t="n">
-        <v>643</v>
-      </c>
-      <c r="N30" t="n">
-        <v>661</v>
-      </c>
       <c r="O30" t="n">
-        <v>708</v>
+        <v>707.7</v>
       </c>
       <c r="P30" t="n">
-        <v>686</v>
+        <v>690.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>626</v>
+        <v>631.5</v>
       </c>
       <c r="R30" t="n">
-        <v>649</v>
+        <v>652.5</v>
       </c>
       <c r="S30" t="n">
-        <v>645</v>
+        <v>648.5</v>
       </c>
       <c r="T30" t="n">
-        <v>657</v>
+        <v>647.2</v>
       </c>
       <c r="U30" t="n">
-        <v>581</v>
+        <v>585.6</v>
       </c>
       <c r="V30" t="n">
-        <v>590</v>
+        <v>593.1</v>
       </c>
       <c r="W30" t="n">
-        <v>590</v>
+        <v>595.3</v>
       </c>
       <c r="X30" t="n">
-        <v>674</v>
+        <v>674.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>728</v>
+        <v>727.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>16365</v>
+        <v>620.36375</v>
       </c>
     </row>
     <row r="31">
@@ -2953,76 +2953,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>211</v>
+        <v>216.2</v>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E31" t="n">
-        <v>133</v>
+        <v>135.5</v>
       </c>
       <c r="F31" t="n">
-        <v>149</v>
+        <v>153.1</v>
       </c>
       <c r="G31" t="n">
-        <v>250</v>
+        <v>255.1</v>
       </c>
       <c r="H31" t="n">
-        <v>382</v>
+        <v>387.5</v>
       </c>
       <c r="I31" t="n">
-        <v>530</v>
+        <v>532.8</v>
       </c>
       <c r="J31" t="n">
-        <v>622</v>
+        <v>625.9</v>
       </c>
       <c r="K31" t="n">
-        <v>678</v>
+        <v>680.9</v>
       </c>
       <c r="L31" t="n">
-        <v>649</v>
+        <v>654.7</v>
       </c>
       <c r="M31" t="n">
-        <v>725</v>
+        <v>730.4</v>
       </c>
       <c r="N31" t="n">
-        <v>868</v>
+        <v>873.8</v>
       </c>
       <c r="O31" t="n">
-        <v>900</v>
+        <v>903.7</v>
       </c>
       <c r="P31" t="n">
-        <v>854</v>
+        <v>858.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>842</v>
+        <v>846.4</v>
       </c>
       <c r="R31" t="n">
-        <v>882</v>
+        <v>876.1</v>
       </c>
       <c r="S31" t="n">
-        <v>980</v>
+        <v>974.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1142</v>
+        <v>1145.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1307</v>
+        <v>1311.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1222</v>
+        <v>1224.8</v>
       </c>
       <c r="W31" t="n">
-        <v>1277</v>
+        <v>1281.6</v>
       </c>
       <c r="X31" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="Y31" t="n">
-        <v>703</v>
+        <v>707.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>17181.1</v>
+        <v>402.4583333333334</v>
       </c>
     </row>
     <row r="32">
@@ -3035,76 +3035,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>47.5</v>
+        <v>50.7</v>
       </c>
       <c r="D32" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
-        <v>143</v>
+        <v>148.2</v>
       </c>
       <c r="F32" t="n">
-        <v>125</v>
+        <v>129.9</v>
       </c>
       <c r="G32" t="n">
-        <v>184</v>
+        <v>187.6</v>
       </c>
       <c r="H32" t="n">
-        <v>235</v>
+        <v>240.3</v>
       </c>
       <c r="I32" t="n">
-        <v>162</v>
+        <v>166.5</v>
       </c>
       <c r="J32" t="n">
-        <v>179</v>
+        <v>183.8</v>
       </c>
       <c r="K32" t="n">
-        <v>290</v>
+        <v>296.3</v>
       </c>
       <c r="L32" t="n">
-        <v>217</v>
+        <v>221.1</v>
       </c>
       <c r="M32" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N32" t="n">
-        <v>231</v>
+        <v>235.3</v>
       </c>
       <c r="O32" t="n">
-        <v>227</v>
+        <v>231.5</v>
       </c>
       <c r="P32" t="n">
-        <v>281</v>
+        <v>285.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>295</v>
+        <v>300.1</v>
       </c>
       <c r="R32" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S32" t="n">
-        <v>226</v>
+        <v>231.8</v>
       </c>
       <c r="T32" t="n">
-        <v>173</v>
+        <v>178.4</v>
       </c>
       <c r="U32" t="n">
-        <v>308</v>
+        <v>313.1</v>
       </c>
       <c r="V32" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="W32" t="n">
-        <v>111</v>
+        <v>116.1</v>
       </c>
       <c r="X32" t="n">
-        <v>97</v>
+        <v>101.7</v>
       </c>
       <c r="Y32" t="n">
-        <v>104</v>
+        <v>107.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>4630.5</v>
+        <v>101.0154166666667</v>
       </c>
     </row>
     <row r="33">
@@ -3117,76 +3117,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53.1</v>
+        <v>55.1</v>
       </c>
       <c r="D33" t="n">
-        <v>45.3</v>
+        <v>46</v>
       </c>
       <c r="E33" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F33" t="n">
-        <v>77.2</v>
+        <v>77.7</v>
       </c>
       <c r="G33" t="n">
-        <v>59.1</v>
+        <v>60.9</v>
       </c>
       <c r="H33" t="n">
-        <v>66</v>
+        <v>63.5</v>
       </c>
       <c r="I33" t="n">
-        <v>63.1</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>120.1</v>
+        <v>101.2</v>
       </c>
       <c r="K33" t="n">
-        <v>57.1</v>
+        <v>58</v>
       </c>
       <c r="L33" t="n">
-        <v>68</v>
+        <v>39.1</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="N33" t="n">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="O33" t="n">
-        <v>63.1</v>
+        <v>3.1</v>
       </c>
       <c r="P33" t="n">
-        <v>48.2</v>
+        <v>23.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="R33" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="U33" t="n">
         <v>22</v>
       </c>
-      <c r="S33" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>26</v>
-      </c>
       <c r="V33" t="n">
-        <v>54.7</v>
+        <v>24</v>
       </c>
       <c r="W33" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="X33" t="n">
-        <v>33.1</v>
+        <v>32.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.3</v>
+        <v>31.9</v>
       </c>
       <c r="Z33" t="n">
-        <v>1136.2</v>
+        <v>34.31666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -3199,76 +3199,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>64</v>
+        <v>68.8</v>
       </c>
       <c r="D34" t="n">
-        <v>76</v>
+        <v>80.7</v>
       </c>
       <c r="E34" t="n">
-        <v>77</v>
+        <v>82.3</v>
       </c>
       <c r="F34" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" t="n">
-        <v>92</v>
+        <v>96.2</v>
       </c>
       <c r="H34" t="n">
-        <v>75</v>
+        <v>79.5</v>
       </c>
       <c r="I34" t="n">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K34" t="n">
-        <v>72</v>
+        <v>78.2</v>
       </c>
       <c r="L34" t="n">
-        <v>68</v>
+        <v>70.7</v>
       </c>
       <c r="M34" t="n">
-        <v>74</v>
+        <v>76.7</v>
       </c>
       <c r="N34" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="S34" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>69</v>
+      </c>
+      <c r="W34" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="X34" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="Y34" t="n">
         <v>83</v>
       </c>
-      <c r="O34" t="n">
-        <v>86</v>
-      </c>
-      <c r="P34" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>79</v>
-      </c>
-      <c r="R34" t="n">
-        <v>70</v>
-      </c>
-      <c r="S34" t="n">
-        <v>68</v>
-      </c>
-      <c r="T34" t="n">
-        <v>80</v>
-      </c>
-      <c r="U34" t="n">
-        <v>73</v>
-      </c>
-      <c r="V34" t="n">
-        <v>64</v>
-      </c>
-      <c r="W34" t="n">
-        <v>76</v>
-      </c>
-      <c r="X34" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>78</v>
-      </c>
       <c r="Z34" t="n">
-        <v>1883.1</v>
+        <v>69.05083333333333</v>
       </c>
     </row>
     <row r="35">
@@ -3281,76 +3281,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>370</v>
+        <v>370.8</v>
       </c>
       <c r="D35" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E35" t="n">
-        <v>368</v>
+        <v>371.9</v>
       </c>
       <c r="F35" t="n">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G35" t="n">
-        <v>398</v>
+        <v>404.4</v>
       </c>
       <c r="H35" t="n">
-        <v>427</v>
+        <v>419.8</v>
       </c>
       <c r="I35" t="n">
-        <v>410</v>
+        <v>410.3</v>
       </c>
       <c r="J35" t="n">
-        <v>663</v>
+        <v>667.1</v>
       </c>
       <c r="K35" t="n">
-        <v>635</v>
+        <v>633.1</v>
       </c>
       <c r="L35" t="n">
-        <v>641</v>
+        <v>646.5</v>
       </c>
       <c r="M35" t="n">
-        <v>545</v>
+        <v>543.6</v>
       </c>
       <c r="N35" t="n">
-        <v>596</v>
+        <v>600.7</v>
       </c>
       <c r="O35" t="n">
-        <v>549</v>
+        <v>551.6</v>
       </c>
       <c r="P35" t="n">
-        <v>645</v>
+        <v>650.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>568</v>
+        <v>572.1</v>
       </c>
       <c r="R35" t="n">
-        <v>626</v>
+        <v>621.8</v>
       </c>
       <c r="S35" t="n">
-        <v>531</v>
+        <v>525.6</v>
       </c>
       <c r="T35" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="U35" t="n">
         <v>517</v>
       </c>
       <c r="V35" t="n">
-        <v>553</v>
+        <v>557.5</v>
       </c>
       <c r="W35" t="n">
-        <v>501</v>
+        <v>498.8</v>
       </c>
       <c r="X35" t="n">
-        <v>598</v>
+        <v>601.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>511</v>
+        <v>516.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>13013</v>
+        <v>502.84</v>
       </c>
     </row>
     <row r="36">
@@ -3363,52 +3363,52 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="E36" t="n">
-        <v>945</v>
+        <v>340.1</v>
       </c>
       <c r="F36" t="n">
-        <v>233</v>
+        <v>237.9</v>
       </c>
       <c r="G36" t="n">
-        <v>7175</v>
+        <v>7179.9</v>
       </c>
       <c r="H36" t="n">
-        <v>13.6</v>
+        <v>17.2</v>
       </c>
       <c r="I36" t="n">
-        <v>705.8</v>
+        <v>10.8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M36" t="n">
         <v>2.3</v>
       </c>
-      <c r="M36" t="n">
-        <v>201.6</v>
-      </c>
       <c r="N36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.9</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="S36" t="n">
         <v>0.4</v>
@@ -3420,19 +3420,19 @@
         <v>0.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="W36" t="n">
         <v>0.3</v>
       </c>
       <c r="X36" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>10198.3</v>
+        <v>32.58166666666666</v>
       </c>
     </row>
     <row r="37">
@@ -3445,76 +3445,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>469</v>
+        <v>469.6</v>
       </c>
       <c r="D37" t="n">
-        <v>1190</v>
+        <v>585.7</v>
       </c>
       <c r="E37" t="n">
-        <v>536</v>
+        <v>540.6</v>
       </c>
       <c r="F37" t="n">
-        <v>573</v>
+        <v>577.9</v>
       </c>
       <c r="G37" t="n">
-        <v>617</v>
+        <v>616.3</v>
       </c>
       <c r="H37" t="n">
-        <v>1884.8</v>
+        <v>511.3</v>
       </c>
       <c r="I37" t="n">
-        <v>1171</v>
+        <v>542.7</v>
       </c>
       <c r="J37" t="n">
-        <v>594</v>
+        <v>598.7</v>
       </c>
       <c r="K37" t="n">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L37" t="n">
-        <v>527</v>
+        <v>526.3</v>
       </c>
       <c r="M37" t="n">
-        <v>755</v>
+        <v>493.2</v>
       </c>
       <c r="N37" t="n">
-        <v>518</v>
+        <v>519.8</v>
       </c>
       <c r="O37" t="n">
-        <v>514</v>
+        <v>519.2</v>
       </c>
       <c r="P37" t="n">
-        <v>1276</v>
+        <v>587.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>541</v>
+        <v>546.3</v>
       </c>
       <c r="R37" t="n">
-        <v>560</v>
+        <v>566.1</v>
       </c>
       <c r="S37" t="n">
-        <v>516</v>
+        <v>519.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1177</v>
+        <v>517.1</v>
       </c>
       <c r="U37" t="n">
-        <v>598</v>
+        <v>603.6</v>
       </c>
       <c r="V37" t="n">
-        <v>471</v>
+        <v>476.5</v>
       </c>
       <c r="W37" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="X37" t="n">
-        <v>464</v>
+        <v>467.3</v>
       </c>
       <c r="Y37" t="n">
-        <v>2126</v>
+        <v>1375</v>
       </c>
       <c r="Z37" t="n">
-        <v>19074.8</v>
+        <v>500.7825</v>
       </c>
     </row>
     <row r="38">
@@ -3527,76 +3527,76 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>595</v>
+        <v>586.3</v>
       </c>
       <c r="D38" t="n">
-        <v>716</v>
+        <v>718.5</v>
       </c>
       <c r="E38" t="n">
-        <v>667</v>
+        <v>663.4</v>
       </c>
       <c r="F38" t="n">
-        <v>757</v>
+        <v>760.8</v>
       </c>
       <c r="G38" t="n">
-        <v>777</v>
+        <v>777.3</v>
       </c>
       <c r="H38" t="n">
-        <v>632</v>
+        <v>636.7</v>
       </c>
       <c r="I38" t="n">
-        <v>676</v>
+        <v>679.5</v>
       </c>
       <c r="J38" t="n">
-        <v>693</v>
+        <v>697.5</v>
       </c>
       <c r="K38" t="n">
-        <v>668</v>
+        <v>666.2</v>
       </c>
       <c r="L38" t="n">
-        <v>574</v>
+        <v>568.6</v>
       </c>
       <c r="M38" t="n">
-        <v>554</v>
+        <v>559.8</v>
       </c>
       <c r="N38" t="n">
-        <v>688</v>
+        <v>689.4</v>
       </c>
       <c r="O38" t="n">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="P38" t="n">
-        <v>686</v>
+        <v>679.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>664</v>
+        <v>668.9</v>
       </c>
       <c r="R38" t="n">
-        <v>669</v>
+        <v>665.3</v>
       </c>
       <c r="S38" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T38" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="U38" t="n">
-        <v>614</v>
+        <v>608.3</v>
       </c>
       <c r="V38" t="n">
-        <v>563</v>
+        <v>568.8</v>
       </c>
       <c r="W38" t="n">
-        <v>609</v>
+        <v>614.9</v>
       </c>
       <c r="X38" t="n">
-        <v>612</v>
+        <v>606.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>691</v>
+        <v>692.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>16157</v>
+        <v>591.8158333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3609,76 +3609,76 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>397</v>
+        <v>402.3</v>
       </c>
       <c r="D39" t="n">
-        <v>577</v>
+        <v>573.5</v>
       </c>
       <c r="E39" t="n">
-        <v>475</v>
+        <v>481.2</v>
       </c>
       <c r="F39" t="n">
-        <v>650</v>
+        <v>642.3</v>
       </c>
       <c r="G39" t="n">
-        <v>569</v>
+        <v>567.7</v>
       </c>
       <c r="H39" t="n">
-        <v>590</v>
+        <v>594.3</v>
       </c>
       <c r="I39" t="n">
-        <v>1374</v>
+        <v>451.1</v>
       </c>
       <c r="J39" t="n">
-        <v>589</v>
+        <v>592.4</v>
       </c>
       <c r="K39" t="n">
-        <v>1422</v>
+        <v>563.2</v>
       </c>
       <c r="L39" t="n">
-        <v>533</v>
+        <v>535.9</v>
       </c>
       <c r="M39" t="n">
-        <v>507</v>
+        <v>495.7</v>
       </c>
       <c r="N39" t="n">
-        <v>515</v>
+        <v>515.9</v>
       </c>
       <c r="O39" t="n">
-        <v>551</v>
+        <v>555.2</v>
       </c>
       <c r="P39" t="n">
-        <v>495</v>
+        <v>499.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>641</v>
+        <v>646.4</v>
       </c>
       <c r="R39" t="n">
-        <v>479</v>
+        <v>483.9</v>
       </c>
       <c r="S39" t="n">
-        <v>1142</v>
+        <v>568.6</v>
       </c>
       <c r="T39" t="n">
-        <v>473</v>
+        <v>475.3</v>
       </c>
       <c r="U39" t="n">
-        <v>551</v>
+        <v>546.4</v>
       </c>
       <c r="V39" t="n">
-        <v>477</v>
+        <v>482.2</v>
       </c>
       <c r="W39" t="n">
-        <v>896</v>
+        <v>466.4</v>
       </c>
       <c r="X39" t="n">
-        <v>539</v>
+        <v>533.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>2353</v>
+        <v>1494.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>17778</v>
+        <v>531.7383333333333</v>
       </c>
     </row>
     <row r="40">
@@ -3697,70 +3697,70 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1416</v>
+        <v>1409.3</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>207.8</v>
+        <v>9.9</v>
       </c>
       <c r="H40" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>206.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="K40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V40" t="n">
         <v>3</v>
       </c>
-      <c r="L40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>202</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V40" t="n">
-        <v>202.1</v>
-      </c>
       <c r="W40" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="X40" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z40" t="n">
-        <v>5351.2</v>
+        <v>1527.545416666667</v>
       </c>
     </row>
     <row r="41">
@@ -3773,76 +3773,76 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>651</v>
+        <v>649.7</v>
       </c>
       <c r="D41" t="n">
-        <v>735</v>
+        <v>731.3</v>
       </c>
       <c r="E41" t="n">
-        <v>795</v>
+        <v>795.9</v>
       </c>
       <c r="F41" t="n">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="G41" t="n">
-        <v>876</v>
+        <v>870.8</v>
       </c>
       <c r="H41" t="n">
-        <v>683</v>
+        <v>687.7</v>
       </c>
       <c r="I41" t="n">
-        <v>785</v>
+        <v>721.6</v>
       </c>
       <c r="J41" t="n">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="K41" t="n">
-        <v>747</v>
+        <v>737.1</v>
       </c>
       <c r="L41" t="n">
-        <v>624</v>
+        <v>629.9</v>
       </c>
       <c r="M41" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="N41" t="n">
-        <v>725</v>
+        <v>727.6</v>
       </c>
       <c r="O41" t="n">
-        <v>761</v>
+        <v>764.6</v>
       </c>
       <c r="P41" t="n">
-        <v>755</v>
+        <v>758.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>733</v>
+        <v>733.1</v>
       </c>
       <c r="R41" t="n">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="S41" t="n">
-        <v>699</v>
+        <v>703.9</v>
       </c>
       <c r="T41" t="n">
-        <v>695</v>
+        <v>699.6</v>
       </c>
       <c r="U41" t="n">
-        <v>615</v>
+        <v>619.2</v>
       </c>
       <c r="V41" t="n">
-        <v>583</v>
+        <v>587.7</v>
       </c>
       <c r="W41" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="X41" t="n">
-        <v>686</v>
+        <v>691.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>772</v>
+        <v>776.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>17769</v>
+        <v>643.3275</v>
       </c>
     </row>
     <row r="42">
@@ -3855,76 +3855,76 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>98</v>
+        <v>102.4</v>
       </c>
       <c r="D42" t="n">
-        <v>96</v>
+        <v>99.3</v>
       </c>
       <c r="E42" t="n">
-        <v>140</v>
+        <v>140.6</v>
       </c>
       <c r="F42" t="n">
-        <v>109</v>
+        <v>110.2</v>
       </c>
       <c r="G42" t="n">
-        <v>109</v>
+        <v>110.4</v>
       </c>
       <c r="H42" t="n">
-        <v>88</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>94</v>
+        <v>98.2</v>
       </c>
       <c r="K42" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="N42" t="n">
         <v>91</v>
       </c>
-      <c r="L42" t="n">
-        <v>229</v>
-      </c>
-      <c r="M42" t="n">
-        <v>134</v>
-      </c>
-      <c r="N42" t="n">
-        <v>87</v>
-      </c>
       <c r="O42" t="n">
-        <v>96</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>93</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q42" t="n">
-        <v>92</v>
+        <v>95.7</v>
       </c>
       <c r="R42" t="n">
-        <v>90</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>86</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="T42" t="n">
-        <v>90</v>
+        <v>92.2</v>
       </c>
       <c r="U42" t="n">
-        <v>87</v>
+        <v>89.8</v>
       </c>
       <c r="V42" t="n">
-        <v>85</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="W42" t="n">
-        <v>98</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="X42" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="Y42" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>2553</v>
+        <v>92.98333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -3937,76 +3937,76 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2001.2</v>
+        <v>1.3</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
       </c>
       <c r="E43" t="n">
-        <v>200.3</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
-        <v>603.2</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>102</v>
+        <v>104.4</v>
       </c>
       <c r="J43" t="n">
-        <v>1575.5</v>
+        <v>305.3</v>
       </c>
       <c r="K43" t="n">
-        <v>703</v>
+        <v>707.5</v>
       </c>
       <c r="L43" t="n">
-        <v>339</v>
+        <v>342.7</v>
       </c>
       <c r="M43" t="n">
-        <v>842</v>
+        <v>247.7</v>
       </c>
       <c r="N43" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="O43" t="n">
-        <v>161</v>
+        <v>166.1</v>
       </c>
       <c r="P43" t="n">
-        <v>287</v>
+        <v>281.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>284</v>
+        <v>289.9</v>
       </c>
       <c r="R43" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S43" t="n">
-        <v>1219</v>
+        <v>1223.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6578</v>
+        <v>3729.6</v>
       </c>
       <c r="U43" t="n">
-        <v>1347</v>
+        <v>1351.3</v>
       </c>
       <c r="V43" t="n">
-        <v>56</v>
+        <v>60.6</v>
       </c>
       <c r="W43" t="n">
-        <v>55</v>
+        <v>59.1</v>
       </c>
       <c r="X43" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.3</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
-        <v>16715.8</v>
+        <v>44.60875</v>
       </c>
     </row>
     <row r="44">
@@ -4019,76 +4019,76 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>317</v>
+        <v>317.4</v>
       </c>
       <c r="D44" t="n">
-        <v>375</v>
+        <v>351.9</v>
       </c>
       <c r="E44" t="n">
-        <v>354</v>
+        <v>358.8</v>
       </c>
       <c r="F44" t="n">
-        <v>409</v>
+        <v>404.6</v>
       </c>
       <c r="G44" t="n">
-        <v>423</v>
+        <v>420.1</v>
       </c>
       <c r="H44" t="n">
-        <v>330</v>
+        <v>335.2</v>
       </c>
       <c r="I44" t="n">
-        <v>340</v>
+        <v>337.5</v>
       </c>
       <c r="J44" t="n">
-        <v>386</v>
+        <v>386.8</v>
       </c>
       <c r="K44" t="n">
-        <v>366</v>
+        <v>371.3</v>
       </c>
       <c r="L44" t="n">
-        <v>370</v>
+        <v>370.6</v>
       </c>
       <c r="M44" t="n">
-        <v>364</v>
+        <v>368.4</v>
       </c>
       <c r="N44" t="n">
-        <v>395</v>
+        <v>399.7</v>
       </c>
       <c r="O44" t="n">
-        <v>462</v>
+        <v>426.3</v>
       </c>
       <c r="P44" t="n">
-        <v>441</v>
+        <v>446.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>444</v>
+        <v>444.4</v>
       </c>
       <c r="R44" t="n">
-        <v>422</v>
+        <v>420.5</v>
       </c>
       <c r="S44" t="n">
-        <v>367</v>
+        <v>368.3</v>
       </c>
       <c r="T44" t="n">
-        <v>346</v>
+        <v>350.5</v>
       </c>
       <c r="U44" t="n">
-        <v>336</v>
+        <v>340.6</v>
       </c>
       <c r="V44" t="n">
-        <v>318</v>
+        <v>317.6</v>
       </c>
       <c r="W44" t="n">
-        <v>331</v>
+        <v>329.4</v>
       </c>
       <c r="X44" t="n">
-        <v>350</v>
+        <v>351.6</v>
       </c>
       <c r="Y44" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="n">
-        <v>9248</v>
+        <v>356.39625</v>
       </c>
     </row>
     <row r="45">
@@ -4101,76 +4101,76 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="D45" t="n">
-        <v>280</v>
+        <v>282.5</v>
       </c>
       <c r="E45" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>155.2</v>
       </c>
       <c r="G45" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="H45" t="n">
-        <v>163</v>
+        <v>166.7</v>
       </c>
       <c r="I45" t="n">
-        <v>380</v>
+        <v>384.5</v>
       </c>
       <c r="J45" t="n">
-        <v>452</v>
+        <v>454.9</v>
       </c>
       <c r="K45" t="n">
-        <v>481</v>
+        <v>484.9</v>
       </c>
       <c r="L45" t="n">
-        <v>540</v>
+        <v>528.5</v>
       </c>
       <c r="M45" t="n">
-        <v>505</v>
+        <v>508.1</v>
       </c>
       <c r="N45" t="n">
-        <v>747</v>
+        <v>752.1</v>
       </c>
       <c r="O45" t="n">
-        <v>648</v>
+        <v>647.8</v>
       </c>
       <c r="P45" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="Q45" t="n">
-        <v>679</v>
+        <v>655.5</v>
       </c>
       <c r="R45" t="n">
-        <v>615</v>
+        <v>618.9</v>
       </c>
       <c r="S45" t="n">
-        <v>765</v>
+        <v>770.1</v>
       </c>
       <c r="T45" t="n">
-        <v>730</v>
+        <v>736.5</v>
       </c>
       <c r="U45" t="n">
-        <v>809</v>
+        <v>815.6</v>
       </c>
       <c r="V45" t="n">
-        <v>813</v>
+        <v>817.3</v>
       </c>
       <c r="W45" t="n">
-        <v>818</v>
+        <v>821.9</v>
       </c>
       <c r="X45" t="n">
-        <v>849</v>
+        <v>852.8</v>
       </c>
       <c r="Y45" t="n">
-        <v>1037.2</v>
+        <v>867.7</v>
       </c>
       <c r="Z45" t="n">
-        <v>13652.2</v>
+        <v>449.0945833333333</v>
       </c>
     </row>
     <row r="46">
@@ -4183,76 +4183,76 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1344</v>
+        <v>1343.6</v>
       </c>
       <c r="D46" t="n">
-        <v>1280</v>
+        <v>1285.1</v>
       </c>
       <c r="E46" t="n">
-        <v>1427</v>
+        <v>1432.1</v>
       </c>
       <c r="F46" t="n">
-        <v>1294</v>
+        <v>1293.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1317</v>
+        <v>1320.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1215</v>
+        <v>1207.3</v>
       </c>
       <c r="I46" t="n">
-        <v>1417</v>
+        <v>1300.6</v>
       </c>
       <c r="J46" t="n">
-        <v>1476</v>
+        <v>1479.6</v>
       </c>
       <c r="K46" t="n">
-        <v>1723</v>
+        <v>1716.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1256</v>
+        <v>1258.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1582</v>
+        <v>1440.7</v>
       </c>
       <c r="N46" t="n">
-        <v>1362</v>
+        <v>1366.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1418</v>
+        <v>1422.6</v>
       </c>
       <c r="P46" t="n">
-        <v>1442</v>
+        <v>1444.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>1321</v>
+        <v>1321.8</v>
       </c>
       <c r="R46" t="n">
-        <v>1570.2</v>
+        <v>1442.3</v>
       </c>
       <c r="S46" t="n">
-        <v>1233</v>
+        <v>1237.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1406</v>
+        <v>1228.6</v>
       </c>
       <c r="U46" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="V46" t="n">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="W46" t="n">
-        <v>2103</v>
+        <v>2106.9</v>
       </c>
       <c r="X46" t="n">
-        <v>1404</v>
+        <v>1398.9</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310</v>
+        <v>1309.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>34471.2</v>
+        <v>1261.2</v>
       </c>
     </row>
     <row r="47">
@@ -4265,76 +4265,76 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>79</v>
+        <v>82.8</v>
       </c>
       <c r="D47" t="n">
-        <v>101</v>
+        <v>103.6</v>
       </c>
       <c r="E47" t="n">
-        <v>530</v>
+        <v>521.6</v>
       </c>
       <c r="F47" t="n">
-        <v>207</v>
+        <v>211.3</v>
       </c>
       <c r="G47" t="n">
-        <v>97</v>
+        <v>102.1</v>
       </c>
       <c r="H47" t="n">
-        <v>83</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>85</v>
+        <v>90.5</v>
       </c>
       <c r="J47" t="n">
-        <v>87</v>
+        <v>91.2</v>
       </c>
       <c r="K47" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="N47" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="P47" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="Q47" t="n">
         <v>84</v>
       </c>
-      <c r="L47" t="n">
+      <c r="R47" t="n">
+        <v>86</v>
+      </c>
+      <c r="S47" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="T47" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="U47" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="V47" t="n">
         <v>76</v>
       </c>
-      <c r="M47" t="n">
-        <v>126</v>
-      </c>
-      <c r="N47" t="n">
-        <v>85</v>
-      </c>
-      <c r="O47" t="n">
-        <v>84</v>
-      </c>
-      <c r="P47" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>82</v>
-      </c>
-      <c r="R47" t="n">
-        <v>84</v>
-      </c>
-      <c r="S47" t="n">
-        <v>79</v>
-      </c>
-      <c r="T47" t="n">
-        <v>82</v>
-      </c>
-      <c r="U47" t="n">
-        <v>74</v>
-      </c>
-      <c r="V47" t="n">
-        <v>134</v>
-      </c>
       <c r="W47" t="n">
-        <v>80</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="X47" t="n">
-        <v>85</v>
+        <v>90.8</v>
       </c>
       <c r="Y47" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Z47" t="n">
-        <v>3191</v>
+        <v>302.2845833333333</v>
       </c>
     </row>
     <row r="48">
@@ -4347,76 +4347,76 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>354</v>
+        <v>354.3</v>
       </c>
       <c r="D48" t="n">
-        <v>324</v>
+        <v>326.7</v>
       </c>
       <c r="E48" t="n">
-        <v>295</v>
+        <v>297.6</v>
       </c>
       <c r="F48" t="n">
-        <v>180</v>
+        <v>185.2</v>
       </c>
       <c r="G48" t="n">
-        <v>173</v>
+        <v>177.5</v>
       </c>
       <c r="H48" t="n">
-        <v>144</v>
+        <v>146.3</v>
       </c>
       <c r="I48" t="n">
-        <v>137</v>
+        <v>141.1</v>
       </c>
       <c r="J48" t="n">
-        <v>158</v>
+        <v>162.3</v>
       </c>
       <c r="K48" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L48" t="n">
-        <v>128</v>
+        <v>132.9</v>
       </c>
       <c r="M48" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="R48" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="T48" t="n">
         <v>138</v>
       </c>
-      <c r="N48" t="n">
-        <v>146</v>
-      </c>
-      <c r="O48" t="n">
-        <v>163</v>
-      </c>
-      <c r="P48" t="n">
-        <v>160</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>147</v>
-      </c>
-      <c r="R48" t="n">
-        <v>148</v>
-      </c>
-      <c r="S48" t="n">
-        <v>142</v>
-      </c>
-      <c r="T48" t="n">
-        <v>133</v>
-      </c>
       <c r="U48" t="n">
-        <v>129</v>
+        <v>133.6</v>
       </c>
       <c r="V48" t="n">
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="W48" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="X48" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y48" t="n">
-        <v>146</v>
+        <v>151.8</v>
       </c>
       <c r="Z48" t="n">
-        <v>4264</v>
+        <v>189.04625</v>
       </c>
     </row>
     <row r="49">
@@ -4429,76 +4429,76 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>51.1</v>
       </c>
       <c r="D49" t="n">
-        <v>159</v>
+        <v>164.2</v>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F49" t="n">
-        <v>191</v>
+        <v>196.8</v>
       </c>
       <c r="G49" t="n">
-        <v>64</v>
+        <v>68.7</v>
       </c>
       <c r="H49" t="n">
-        <v>185</v>
+        <v>154.3</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>54.8</v>
       </c>
       <c r="J49" t="n">
-        <v>158</v>
+        <v>160.9</v>
       </c>
       <c r="K49" t="n">
-        <v>59</v>
+        <v>59.4</v>
       </c>
       <c r="L49" t="n">
-        <v>128</v>
+        <v>130.9</v>
       </c>
       <c r="M49" t="n">
-        <v>94</v>
+        <v>51.5</v>
       </c>
       <c r="N49" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="O49" t="n">
-        <v>58</v>
+        <v>62.1</v>
       </c>
       <c r="P49" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q49" t="n">
-        <v>124</v>
+        <v>84.3</v>
       </c>
       <c r="R49" t="n">
-        <v>200</v>
+        <v>201.3</v>
       </c>
       <c r="S49" t="n">
-        <v>50</v>
+        <v>53.9</v>
       </c>
       <c r="T49" t="n">
-        <v>148</v>
+        <v>151.2</v>
       </c>
       <c r="U49" t="n">
-        <v>46</v>
+        <v>50.9</v>
       </c>
       <c r="V49" t="n">
-        <v>177</v>
+        <v>144.8</v>
       </c>
       <c r="W49" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="X49" t="n">
-        <v>167</v>
+        <v>163.7</v>
       </c>
       <c r="Y49" t="n">
-        <v>59</v>
+        <v>60.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>2888</v>
+        <v>140.2729166666667</v>
       </c>
     </row>
     <row r="50">
@@ -4517,70 +4517,70 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="G50" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>10.9</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J50" t="n">
-        <v>27</v>
+        <v>31.4</v>
       </c>
       <c r="K50" t="n">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="L50" t="n">
-        <v>15</v>
+        <v>19.6</v>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>16.3</v>
       </c>
       <c r="N50" t="n">
-        <v>14</v>
+        <v>17.7</v>
       </c>
       <c r="O50" t="n">
-        <v>20</v>
+        <v>25.9</v>
       </c>
       <c r="P50" t="n">
-        <v>30</v>
+        <v>33.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>28</v>
+        <v>31.8</v>
       </c>
       <c r="R50" t="n">
-        <v>16</v>
+        <v>23.1</v>
       </c>
       <c r="S50" t="n">
-        <v>9.800000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="T50" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="U50" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="V50" t="n">
-        <v>2370.2</v>
+        <v>2371.6</v>
       </c>
       <c r="W50" t="n">
-        <v>1308.9</v>
+        <v>1309.9</v>
       </c>
       <c r="X50" t="n">
-        <v>576.9</v>
+        <v>577.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>361.9</v>
+        <v>362.7</v>
       </c>
       <c r="Z50" t="n">
-        <v>4862.3</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="51">
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4611,58 +4611,58 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>115.1</v>
+        <v>116.7</v>
       </c>
       <c r="K51" t="n">
-        <v>570.9</v>
+        <v>574</v>
       </c>
       <c r="L51" t="n">
-        <v>372.1</v>
+        <v>374</v>
       </c>
       <c r="M51" t="n">
-        <v>1671</v>
+        <v>919.1</v>
       </c>
       <c r="N51" t="n">
-        <v>501.3</v>
+        <v>0.4</v>
       </c>
       <c r="O51" t="n">
-        <v>807.8</v>
+        <v>808.7</v>
       </c>
       <c r="P51" t="n">
-        <v>508</v>
+        <v>488.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>295</v>
+        <v>298.9</v>
       </c>
       <c r="R51" t="n">
-        <v>1692</v>
+        <v>1694.7</v>
       </c>
       <c r="S51" t="n">
-        <v>1110</v>
+        <v>502.9</v>
       </c>
       <c r="T51" t="n">
         <v>30</v>
       </c>
       <c r="U51" t="n">
-        <v>96.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="V51" t="n">
-        <v>504.3</v>
+        <v>5.3</v>
       </c>
       <c r="W51" t="n">
         <v>19</v>
       </c>
       <c r="X51" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="Y51" t="n">
-        <v>59.9</v>
+        <v>60.8</v>
       </c>
       <c r="Z51" t="n">
-        <v>11972.6</v>
+        <v>1464.20125</v>
       </c>
     </row>
   </sheetData>
